--- a/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
   <si>
     <t>SNN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,219 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43645</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43554</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43372</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42917</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42644</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1134000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2653000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2485000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1202000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2464000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1169000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2440000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1196000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2429000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1152000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2336000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2341000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1119000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2328000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>690000</v>
+      </c>
+      <c r="F9" s="3">
         <v>648000</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
         <v>645000</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
         <v>653000</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>645000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>603000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>640000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1963000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1837000</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
         <v>1819000</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
         <v>1787000</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>1784000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>1733000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1701000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1696000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,25 +893,27 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>153000</v>
+      </c>
+      <c r="F12" s="3">
         <v>139000</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
         <v>130000</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>116000</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>5</v>
@@ -897,19 +925,25 @@
         <v>5</v>
       </c>
       <c r="L12" s="3">
+        <v>116000</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3">
         <v>107000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>117000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,90 +983,108 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>123000</v>
+      </c>
+      <c r="F14" s="3">
         <v>52000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
         <v>56000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>78000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>-30000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>14000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-326000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F15" s="3">
         <v>61000</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
         <v>56000</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
         <v>57000</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>127000</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>65000</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2257000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2066000</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
         <v>1973000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
         <v>2068000</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>1909000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>1922000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1571000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>396000</v>
+      </c>
+      <c r="F18" s="3">
         <v>419000</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
         <v>491000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
         <v>372000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>520000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>414000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>770000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,102 +1210,116 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-6000</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
         <v>-51000</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
         <v>-31000</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-24000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-35000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>641000</v>
+      </c>
+      <c r="F21" s="3">
         <v>661000</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
         <v>647000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
         <v>569000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>724000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>630000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>984000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>541000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F22" s="3">
         <v>30000</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1255,102 +1335,120 @@
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>28000</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>360000</v>
+      </c>
+      <c r="F23" s="3">
         <v>383000</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
         <v>440000</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
         <v>341000</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>496000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>383000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>735000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>69000</v>
+      </c>
+      <c r="F24" s="3">
         <v>74000</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
         <v>51000</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
         <v>67000</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>21000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>59000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>192000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>291000</v>
+      </c>
+      <c r="F26" s="3">
         <v>309000</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
         <v>389000</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
         <v>274000</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>475000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>324000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>543000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>291000</v>
+      </c>
+      <c r="F27" s="3">
         <v>309000</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
         <v>389000</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
         <v>274000</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>475000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>324000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>543000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1524,27 +1646,27 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-32000</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1554,8 +1676,14 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1770,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F32" s="3">
         <v>6000</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
         <v>51000</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
         <v>31000</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>24000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>35000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>291000</v>
+      </c>
+      <c r="F33" s="3">
         <v>309000</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
         <v>389000</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
         <v>274000</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>443000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>324000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>543000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>291000</v>
+      </c>
+      <c r="F35" s="3">
         <v>309000</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
         <v>389000</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
         <v>274000</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>443000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>324000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>543000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43645</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43554</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43372</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42917</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42644</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +2052,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>277000</v>
+      </c>
+      <c r="F41" s="3">
         <v>137000</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
         <v>365000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
         <v>99000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>169000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>69000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>100000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,90 +2142,108 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1328000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1280000</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
         <v>1317000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
         <v>1205000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>1258000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>1212000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1185000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1166000</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1614000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1532000</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
         <v>1395000</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
         <v>1352000</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>1304000</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>1298000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1244000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1291000</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2076,181 +2274,211 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3219000</v>
+      </c>
+      <c r="F46" s="3">
         <v>2949000</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
         <v>3077000</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
         <v>2656000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>2731000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>2579000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2529000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>110000</v>
+      </c>
+      <c r="F47" s="3">
         <v>109000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
         <v>139000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
         <v>140000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>139000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>135000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>137000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1323000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1226000</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
         <v>1062000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>1056000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>1049000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>1032000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>982000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>946000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4356000</v>
+      </c>
+      <c r="F49" s="3">
         <v>4391000</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
         <v>3547000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
         <v>3638000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>3742000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>3587000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3599000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3762000</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2565,61 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>291000</v>
+      </c>
+      <c r="F52" s="3">
         <v>271000</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
         <v>234000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
         <v>223000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>205000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>106000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>97000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9299000</v>
+      </c>
+      <c r="F54" s="3">
         <v>8946000</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
         <v>8059000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
         <v>7713000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>7866000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>7439000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7344000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>7502000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,254 +2748,292 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1046000</v>
+      </c>
+      <c r="F57" s="3">
         <v>906000</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
         <v>957000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
         <v>831000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>957000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>792000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>884000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>842000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>72000</v>
+      </c>
+      <c r="F58" s="3">
         <v>199000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
         <v>164000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
         <v>86000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>27000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>64000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>86000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>446000</v>
+      </c>
+      <c r="F59" s="3">
         <v>369000</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
         <v>344000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>330000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>362000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>329000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>378000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>432000</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1564000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1474000</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
         <v>1465000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
         <v>1247000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>1346000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>1185000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1348000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1345000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1975000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1980000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>1301000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>1420000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1423000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1604000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1564000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1708000</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>619000</v>
+      </c>
+      <c r="F62" s="3">
         <v>540000</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
         <v>419000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
         <v>403000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>453000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>449000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>474000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4158000</v>
+      </c>
+      <c r="F66" s="3">
         <v>3994000</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
         <v>3185000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
         <v>3070000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>3222000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>3238000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3386000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3558000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4543000</v>
+      </c>
+      <c r="F72" s="3">
         <v>4370000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
         <v>4303000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>4092000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>4118000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>3680000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3610000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>3450000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5141000</v>
+      </c>
+      <c r="F76" s="3">
         <v>4952000</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
         <v>4874000</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
         <v>4643000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>4644000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>4201000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3958000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>3944000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43645</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43554</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43372</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42917</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42644</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>291000</v>
+      </c>
+      <c r="F81" s="3">
         <v>309000</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
         <v>389000</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
         <v>274000</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>443000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>324000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>543000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,25 +3825,27 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>254000</v>
+      </c>
+      <c r="F83" s="3">
         <v>248000</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
         <v>207000</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
-        <v>228000</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
@@ -3459,19 +3857,25 @@
         <v>5</v>
       </c>
       <c r="L83" s="3">
+        <v>228000</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>219000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>249000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>717000</v>
+      </c>
+      <c r="F89" s="3">
         <v>451000</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
         <v>634000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
         <v>297000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>739000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>351000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>580000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +4173,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-255000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-153000</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
         <v>-169000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
         <v>-178000</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-198000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-178000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-218000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-174000</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-286000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-965000</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
         <v>-179000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
         <v>-199000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-326000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-217000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>5000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-388000</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,49 +4380,57 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-126000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-192000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-123000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-198000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-107000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-162000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-109000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,72 +4564,84 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-296000</v>
+      </c>
+      <c r="F100" s="3">
         <v>303000</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
         <v>-202000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
         <v>-169000</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-304000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-130000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-598000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
         <v>-3000</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
-        <v>2000</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -4151,54 +4649,66 @@
       <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
+        <v>135000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-211000</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
         <v>252000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
         <v>-74000</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>111000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>6000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-15000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-49000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="92">
   <si>
     <t>SNN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42644</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2035000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1134000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2653000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2485000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1202000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2464000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1169000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2440000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1196000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2429000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1152000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2336000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2341000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1119000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2328000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="3">
+        <v>646000</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
         <v>690000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>648000</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
         <v>645000</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>653000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>645000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>603000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>640000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
         <v>1963000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1837000</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
         <v>1819000</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>1787000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>1784000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>1733000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1701000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>1696000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
         <v>153000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>139000</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3">
         <v>130000</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
         <v>116000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3">
         <v>116000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3">
         <v>107000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>117000</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,102 +1006,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>123000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>52000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>56000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>78000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>-30000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>14000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-326000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
         <v>100000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>61000</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
         <v>56000</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>57000</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>127000</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>65000</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="3">
+        <v>2040000</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
         <v>2257000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2066000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
         <v>1973000</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>2068000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>1909000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>1922000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1571000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
         <v>396000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>419000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
         <v>491000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>372000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>520000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>414000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>770000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,117 +1245,124 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
         <v>-9000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6000</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
         <v>-51000</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-31000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-24000</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-35000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
         <v>641000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>661000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
         <v>647000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>569000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>724000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>630000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>984000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>541000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
         <v>27000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>30000</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1341,114 +1381,123 @@
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>28000</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
         <v>360000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>383000</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
         <v>440000</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>341000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>496000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>383000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>735000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
         <v>69000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>74000</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
         <v>51000</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>67000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>21000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>59000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>192000</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
         <v>291000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>309000</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
         <v>389000</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>274000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>475000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>324000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>543000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
         <v>291000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>309000</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
         <v>389000</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>274000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>475000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>324000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>543000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1652,11 +1713,11 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1664,12 +1725,12 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-32000</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
         <v>9000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6000</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
         <v>51000</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>31000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>24000</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>35000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="D33" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
         <v>291000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>309000</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
         <v>389000</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>274000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>443000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>324000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>543000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="D35" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
         <v>291000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>309000</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
         <v>389000</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>274000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>443000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>324000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>543000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42644</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="D41" s="3">
+        <v>347000</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
         <v>277000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>137000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
         <v>365000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>99000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>169000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>69000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,102 +2238,111 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D43" s="3">
+        <v>1231000</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
         <v>1328000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1280000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
         <v>1317000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>1205000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>1258000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>1212000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1185000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>1166000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="D44" s="3">
+        <v>1721000</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
         <v>1614000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1532000</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
         <v>1395000</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>1352000</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>1304000</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>1298000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1244000</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>1291000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2280,205 +2379,220 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="D46" s="3">
+        <v>3299000</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
         <v>3219000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2949000</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
         <v>3077000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>2656000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>2731000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>2579000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2529000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="D47" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
         <v>110000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>109000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
         <v>139000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>140000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>139000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>135000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>137000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="D48" s="3">
+        <v>1353000</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
         <v>1323000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1226000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>1062000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>1056000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>1049000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>1032000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>982000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>946000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="D49" s="3">
+        <v>4398000</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
         <v>4356000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4391000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
         <v>3547000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>3638000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>3742000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>3587000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3599000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>3762000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="3">
+        <v>383000</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
         <v>291000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>271000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
         <v>234000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>223000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>205000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>106000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>97000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
+      <c r="D54" s="3">
+        <v>9539000</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
         <v>9299000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8946000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
         <v>8059000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>7713000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>7866000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>7439000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7344000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>7502000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
+      <c r="D57" s="3">
+        <v>875000</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
         <v>1046000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>906000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
         <v>957000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>831000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>957000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>792000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>884000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>842000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="D58" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
         <v>72000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>199000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
         <v>164000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>86000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>27000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>64000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>86000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="D59" s="3">
+        <v>478000</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>446000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>369000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>344000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>330000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>362000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>329000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>378000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>432000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
+      <c r="D60" s="3">
+        <v>1516000</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
         <v>1564000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1474000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
         <v>1465000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>1247000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>1346000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>1185000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1348000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>1345000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>2476000</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>1975000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1980000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>1301000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1420000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1423000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1604000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1564000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>1708000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D62" s="3">
+        <v>587000</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
         <v>619000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>540000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
         <v>419000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>403000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>453000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>449000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>474000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
+      <c r="D66" s="3">
+        <v>4579000</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
         <v>4158000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3994000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
         <v>3185000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>3070000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>3222000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>3238000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3386000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>3558000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
+      <c r="D72" s="3">
+        <v>4349000</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
         <v>4543000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4370000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>4303000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>4092000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>4118000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>3680000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3610000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>3450000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3">
+      <c r="D76" s="3">
+        <v>4960000</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3">
         <v>5141000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4952000</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
         <v>4874000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>4643000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>4644000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>4201000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3958000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>3944000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42644</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
+      <c r="D81" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
         <v>291000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>309000</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
         <v>389000</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>274000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>443000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>324000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>543000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
+      <c r="D83" s="3">
+        <v>271000</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
         <v>254000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>248000</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
         <v>207000</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>228000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>228000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>219000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>249000</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
+      <c r="D89" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
         <v>717000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>451000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
         <v>634000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>297000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>739000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>351000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>580000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
+      <c r="D91" s="3">
+        <v>-188000</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
         <v>-255000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-153000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
         <v>-169000</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-178000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-198000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-178000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-218000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-174000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
+      <c r="D94" s="3">
+        <v>-326000</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
         <v>-286000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-965000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
         <v>-179000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-199000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-326000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-217000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-388000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4615,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-202000</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-126000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-192000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-123000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-198000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-107000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-162000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-109000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
+      <c r="D100" s="3">
+        <v>325000</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
         <v>-296000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>303000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
         <v>-202000</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-169000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-304000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-130000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-598000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="D101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
+      <c r="D102" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
         <v>135000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-211000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
         <v>252000</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>-74000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>111000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>6000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-15000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-49000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
   <si>
     <t>SNN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2525000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2035000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1134000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2653000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2485000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1202000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2464000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1169000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2440000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1196000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2429000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1152000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2336000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2341000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1119000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2328000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>750000</v>
+      </c>
+      <c r="E9" s="3">
         <v>646000</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
         <v>690000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>648000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
         <v>645000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>653000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>645000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>603000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>640000</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1775000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1389000</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
         <v>1963000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1837000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
         <v>1819000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>1787000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>1784000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>1733000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1701000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>1696000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E12" s="3">
         <v>148000</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
         <v>153000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>139000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
         <v>130000</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3">
         <v>116000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3">
         <v>116000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3">
         <v>107000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>117000</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,108 +1026,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E14" s="3">
         <v>94000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>123000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>52000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>56000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>78000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>-30000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>14000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-326000</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E15" s="3">
         <v>83000</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
         <v>100000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>61000</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
         <v>56000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>57000</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>127000</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>65000</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2225000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2040000</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
         <v>2257000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2066000</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
         <v>1973000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>2068000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>1909000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>1922000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1571000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5000</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
         <v>396000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>419000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
         <v>491000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>372000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>520000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>414000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>770000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1279,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-29000</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
         <v>-9000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
         <v>-51000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-31000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-24000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>571000</v>
+      </c>
+      <c r="E21" s="3">
         <v>237000</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
         <v>641000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>661000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
         <v>647000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>569000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>724000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>630000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>984000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>541000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1357,15 +1397,15 @@
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
         <v>27000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>30000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1384,120 +1424,129 @@
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>28000</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-34000</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
         <v>360000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>383000</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
         <v>440000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>341000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>496000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>383000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>735000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-134000</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
         <v>69000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>74000</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
         <v>51000</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>67000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>21000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>59000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>192000</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E26" s="3">
         <v>100000</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
         <v>291000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>309000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
         <v>389000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>274000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>475000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>324000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>543000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E27" s="3">
         <v>100000</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
         <v>291000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>309000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
         <v>389000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>274000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>475000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>324000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>543000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1716,11 +1777,11 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1728,12 +1789,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-32000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E32" s="3">
         <v>29000</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
         <v>9000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
         <v>51000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>31000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>24000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>35000</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E33" s="3">
         <v>100000</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
         <v>291000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>309000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
         <v>389000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>274000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>443000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>324000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>543000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E35" s="3">
         <v>100000</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
         <v>291000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>309000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
         <v>389000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>274000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>443000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>324000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>543000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1762000</v>
+      </c>
+      <c r="E41" s="3">
         <v>347000</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
         <v>277000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>137000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
         <v>365000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>99000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>169000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>69000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,108 +2331,117 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1211000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1231000</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
         <v>1328000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1280000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
         <v>1317000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>1205000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>1258000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>1212000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1185000</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>1166000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1691000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1721000</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
         <v>1614000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1532000</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
         <v>1395000</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>1352000</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>1304000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>1298000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1244000</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>1291000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2382,217 +2481,232 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4664000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3299000</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
         <v>3219000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2949000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
         <v>3077000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>2656000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>2731000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>2579000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2529000</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E47" s="3">
         <v>106000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
         <v>110000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>109000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
         <v>139000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>140000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>139000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>135000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>137000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1449000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1353000</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>1323000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1226000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>1062000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>1056000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>1049000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>1032000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>982000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>946000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4414000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4398000</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
         <v>4356000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4391000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
         <v>3547000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>3638000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>3742000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>3587000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3599000</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>3762000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E52" s="3">
         <v>383000</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
         <v>291000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>271000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
         <v>234000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>223000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>205000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>106000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>97000</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11012000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9539000</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
         <v>9299000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8946000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
         <v>8059000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>7713000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>7866000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>7439000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7344000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>7502000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3011,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1022000</v>
+      </c>
+      <c r="E57" s="3">
         <v>875000</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
         <v>1046000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>906000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
         <v>957000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>831000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>957000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>792000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>884000</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>842000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E58" s="3">
         <v>163000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
         <v>72000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>199000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
         <v>164000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>86000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>27000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>64000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>86000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>329000</v>
+      </c>
+      <c r="E59" s="3">
         <v>478000</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>446000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>369000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>344000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>330000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>362000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>329000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>378000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>432000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1688000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1516000</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
         <v>1564000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1474000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
         <v>1465000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>1247000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>1346000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>1185000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1348000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>1345000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3353000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2476000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>1975000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1980000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>1301000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1420000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1423000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1604000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1564000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1708000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>692000</v>
+      </c>
+      <c r="E62" s="3">
         <v>587000</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
         <v>619000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>540000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
         <v>419000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>403000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>453000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>449000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>474000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5733000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4579000</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
         <v>4158000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3994000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
         <v>3185000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>3070000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>3222000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>3238000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3386000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>3558000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4647000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4349000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>4543000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4370000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>4303000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>4092000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>4118000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>3680000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3610000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>3450000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5279000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4960000</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
         <v>5141000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4952000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
         <v>4874000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>4643000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>4644000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>4201000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3958000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>3944000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E81" s="3">
         <v>100000</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
         <v>291000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>309000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
         <v>389000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>274000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>443000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>324000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>543000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>291000</v>
+      </c>
+      <c r="E83" s="3">
         <v>271000</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
         <v>254000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>248000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
         <v>207000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>228000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>228000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>219000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>249000</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>862000</v>
+      </c>
+      <c r="E89" s="3">
         <v>73000</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3">
         <v>717000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>451000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
         <v>634000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>297000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>739000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>351000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>580000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-255000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-188000</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
         <v>-255000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-153000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
         <v>-169000</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-178000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-198000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-178000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-218000</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-174000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-280000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-326000</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
         <v>-286000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-965000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
         <v>-179000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-199000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-326000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-217000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-388000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,58 +4849,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-126000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-202000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-126000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-192000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-123000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-198000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-107000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-162000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-109000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>839000</v>
+      </c>
+      <c r="E100" s="3">
         <v>325000</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
         <v>-296000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>303000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
         <v>-202000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-169000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-304000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-130000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-598000</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3000</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1425000</v>
+      </c>
+      <c r="E102" s="3">
         <v>69000</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
         <v>135000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-211000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
         <v>252000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-74000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>111000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>6000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-49000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="92">
   <si>
     <t>SNN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1264000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2525000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2035000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1134000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2653000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2485000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1202000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2464000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1169000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2440000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1196000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2429000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1152000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2336000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2341000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1119000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2328000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
         <v>750000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>646000</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
         <v>690000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>648000</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>645000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>653000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>645000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>603000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>640000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
         <v>1775000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1389000</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
         <v>1963000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1837000</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>1819000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>1787000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>1784000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1733000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1701000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>1696000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,61 +936,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
         <v>159000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>148000</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
         <v>153000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>139000</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
         <v>130000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3">
         <v>116000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3">
         <v>116000</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3">
         <v>107000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>117000</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,114 +1046,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
         <v>74000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>94000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
         <v>123000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>52000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>56000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>78000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>-30000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>14000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-326000</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
         <v>151000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>83000</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
         <v>100000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>61000</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>56000</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>57000</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>127000</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>65000</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
         <v>2225000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2040000</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
         <v>2257000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2066000</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>1973000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>2068000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>1909000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1922000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1571000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>300000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5000</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
         <v>396000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>419000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>491000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>372000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>520000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>414000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>770000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,114 +1313,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
         <v>-20000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-29000</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
         <v>-9000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6000</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-51000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-31000</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-24000</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-35000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
         <v>571000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>237000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
         <v>641000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>661000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>647000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>569000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>724000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>630000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>984000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>541000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1400,15 +1440,15 @@
       <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
         <v>27000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>30000</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1427,126 +1467,135 @@
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>28000</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
         <v>280000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-34000</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
         <v>360000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>383000</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>440000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>341000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>496000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>383000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>735000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
         <v>-68000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-134000</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
         <v>69000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>74000</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>51000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>67000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>21000</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>59000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>192000</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
         <v>348000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100000</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
         <v>291000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>309000</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>389000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>274000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>475000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>324000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>543000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
         <v>348000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100000</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
         <v>291000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>309000</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>389000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>274000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>475000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>324000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>543000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1780,11 +1841,11 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1792,12 +1853,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-32000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
         <v>20000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>29000</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
         <v>9000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6000</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>51000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>31000</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>24000</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>3000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>35000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
         <v>348000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100000</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
         <v>291000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>309000</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>389000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>274000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>443000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>324000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>543000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
         <v>348000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100000</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
         <v>291000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>309000</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>389000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>274000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>443000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>324000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>543000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
         <v>1762000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>347000</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
         <v>277000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>137000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>365000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>99000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>169000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>69000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,114 +2424,123 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
         <v>1211000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1231000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
         <v>1328000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1280000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>1317000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>1205000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>1258000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1212000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1185000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>1166000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
         <v>1691000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1721000</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
         <v>1614000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1532000</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>1395000</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>1352000</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>1304000</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1298000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1244000</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>1291000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2484,229 +2583,244 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
         <v>4664000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3299000</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
         <v>3219000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2949000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>3077000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>2656000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>2731000</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>2579000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2529000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
         <v>117000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>106000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
         <v>110000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>109000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>139000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>140000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>139000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>135000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>137000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
         <v>1449000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1353000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
         <v>1323000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1226000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>1062000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>1056000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>1049000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1032000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>982000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>946000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
         <v>4414000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4398000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
         <v>4356000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4391000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>3547000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>3638000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>3742000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3587000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3599000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>3762000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
         <v>368000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>383000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
         <v>291000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>271000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>234000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>223000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>205000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>106000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>97000</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
         <v>11012000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9539000</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
         <v>9299000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8946000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>8059000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>7713000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>7866000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>7439000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7344000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>7502000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3142,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
         <v>1022000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>875000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
         <v>1046000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>906000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>957000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>831000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>957000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>792000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>884000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>842000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
         <v>337000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>163000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
         <v>72000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>199000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>164000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>86000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>27000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>64000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>86000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
         <v>329000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>478000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
         <v>446000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>369000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>344000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>330000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>362000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>329000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>378000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>432000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
         <v>1688000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1516000</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
         <v>1564000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1474000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>1465000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>1247000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>1346000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1185000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1348000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>1345000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>3353000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2476000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>1975000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1980000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1301000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1420000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1423000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1604000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1564000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>1708000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
         <v>692000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>587000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
         <v>619000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>540000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>419000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>403000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>453000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>449000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>474000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
         <v>5733000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4579000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
         <v>4158000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3994000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>3185000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>3070000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>3222000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3238000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3386000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>3558000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
         <v>4647000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4349000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
         <v>4543000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4370000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>4303000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>4092000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>4118000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>3680000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3610000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>3450000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
         <v>5279000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4960000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
         <v>5141000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4952000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>4874000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>4643000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>4644000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>4201000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3958000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>3944000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
         <v>348000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100000</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
         <v>291000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>309000</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>389000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>274000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>443000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>324000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>543000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
         <v>291000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>271000</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
         <v>254000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>248000</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>207000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>228000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>228000</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>219000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>249000</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
         <v>862000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>73000</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
         <v>717000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>451000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>634000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>297000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>739000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>351000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>580000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
         <v>-255000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-188000</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
         <v>-255000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-153000</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-169000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-178000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-198000</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-178000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-218000</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-174000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
         <v>-280000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-326000</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
         <v>-286000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-965000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-179000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-199000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-326000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-217000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>5000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-388000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,61 +5083,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-126000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-202000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-126000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-192000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-123000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-198000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-107000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-162000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-109000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5305,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
         <v>839000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>325000</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
         <v>-296000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>303000</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-202000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-169000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-304000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-130000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-598000</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3">
         <v>4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
         <v>1425000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>69000</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
         <v>135000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-211000</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>252000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-74000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>111000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>6000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-15000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-49000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="92">
   <si>
     <t>SNN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,271 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2599000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1264000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2525000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2035000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1134000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2653000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2485000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1202000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2464000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1169000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2440000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1196000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2429000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1152000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2336000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2341000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1119000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2328000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="3">
+        <v>806000</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
         <v>750000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>646000</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
         <v>690000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>648000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>645000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>653000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>645000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>603000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>640000</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="3">
+        <v>1793000</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
         <v>1775000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1389000</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
         <v>1963000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1837000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>1819000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>1787000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>1784000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>1733000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1701000</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>1696000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,64 +950,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
         <v>159000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>148000</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3">
         <v>153000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>139000</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3">
         <v>130000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3">
         <v>116000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3">
         <v>116000</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3">
         <v>107000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>117000</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T12" s="3">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,120 +1066,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>74000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>94000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>123000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>52000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>56000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>78000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>-30000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>14000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-326000</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
         <v>151000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>83000</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
         <v>100000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>61000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>56000</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>57000</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>127000</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>65000</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1206,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="3">
+        <v>2360000</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
         <v>2225000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2040000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
         <v>2257000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2066000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>1973000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>2068000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>1909000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>1922000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1571000</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
         <v>300000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
         <v>396000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>419000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>491000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>372000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>520000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>414000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>770000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,120 +1347,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
         <v>-20000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-29000</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
         <v>-9000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-51000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-31000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-24000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-3000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-35000</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
+        <v>517000</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
         <v>571000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>237000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
         <v>641000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>661000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>647000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>569000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>724000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>630000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>984000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>541000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1443,15 +1483,15 @@
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
         <v>27000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>30000</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1470,132 +1510,141 @@
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>28000</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
         <v>280000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-34000</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
         <v>360000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>383000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>440000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>341000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>496000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>383000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>735000</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
         <v>-68000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-134000</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
         <v>69000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>74000</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>51000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>67000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>21000</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>59000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>192000</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1699,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
         <v>348000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100000</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
         <v>291000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>309000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>389000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>274000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>475000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>324000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>543000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
         <v>348000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100000</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
         <v>291000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>309000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>389000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>274000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>475000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>324000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>543000</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1876,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1844,11 +1905,11 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -1856,12 +1917,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-32000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1874,8 +1935,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2053,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
         <v>20000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>29000</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
         <v>9000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>51000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>31000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>24000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>3000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>35000</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="D33" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
         <v>348000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100000</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
         <v>291000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>309000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>389000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>274000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>443000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>324000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>543000</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2230,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="D35" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
         <v>348000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100000</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
         <v>291000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>309000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>389000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>274000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>443000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>324000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>543000</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2401,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="D41" s="3">
+        <v>1387000</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
         <v>1762000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>347000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
         <v>277000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>137000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>365000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>99000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>169000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>69000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,120 +2517,129 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D43" s="3">
+        <v>1305000</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
         <v>1211000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1231000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
         <v>1328000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1280000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>1317000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>1205000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>1258000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>1212000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1185000</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>1166000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="D44" s="3">
+        <v>1750000</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
         <v>1691000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1721000</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
         <v>1614000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1532000</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>1395000</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>1352000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>1304000</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>1298000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1244000</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>1291000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2586,241 +2685,256 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="D46" s="3">
+        <v>4442000</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
         <v>4664000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3299000</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
         <v>3219000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2949000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>3077000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>2656000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>2731000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>2579000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2529000</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="D47" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
         <v>117000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>106000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
         <v>110000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>109000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>139000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>140000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>139000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>135000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>137000</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="D48" s="3">
+        <v>1453000</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
         <v>1449000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1353000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>1323000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1226000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>1062000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>1056000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>1049000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>1032000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>982000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>946000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="D49" s="3">
+        <v>4485000</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
         <v>4414000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4398000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
         <v>4356000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4391000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>3547000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>3638000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>3742000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>3587000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3599000</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>3762000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3048,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="3">
+        <v>407000</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
         <v>368000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>383000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
         <v>291000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>271000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>234000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>223000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>205000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>106000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>97000</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3166,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
+      <c r="D54" s="3">
+        <v>10933000</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
         <v>11012000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9539000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
         <v>9299000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8946000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>8059000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>7713000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>7866000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>7439000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7344000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>7502000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,344 +3273,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
+      <c r="D57" s="3">
+        <v>1046000</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
         <v>1022000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>875000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
         <v>1046000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>906000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>957000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>831000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>957000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>792000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>884000</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>842000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="D58" s="3">
+        <v>650000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
         <v>337000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>163000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
         <v>72000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>199000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>164000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>86000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>27000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>64000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>86000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="D59" s="3">
+        <v>424000</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>329000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>478000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>446000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>369000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>344000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>330000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>362000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>329000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>378000</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>432000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
+      <c r="D60" s="3">
+        <v>2120000</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
         <v>1688000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1516000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
         <v>1564000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1474000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>1465000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>1247000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>1346000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>1185000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1348000</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>1345000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>2916000</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>3353000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2476000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>1975000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1980000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1301000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1420000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1423000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>1604000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1564000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>1708000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D62" s="3">
+        <v>566000</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
         <v>692000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>587000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
         <v>619000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>540000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>419000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>403000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>453000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>449000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>474000</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3802,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
+      <c r="D66" s="3">
+        <v>5602000</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
         <v>5733000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4579000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
         <v>4158000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3994000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>3185000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>3070000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>3222000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>3238000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3386000</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>3558000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4120,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
+      <c r="D72" s="3">
+        <v>4680000</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
         <v>4647000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4349000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>4543000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4370000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>4303000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>4092000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>4118000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>3680000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3610000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>3450000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4356,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3">
+      <c r="D76" s="3">
+        <v>5331000</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3">
         <v>5279000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4960000</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
         <v>5141000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4952000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>4874000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>4643000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>4644000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>4201000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3958000</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>3944000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4474,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
+      <c r="D81" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
         <v>348000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100000</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
         <v>291000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>309000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>389000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>274000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>443000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>324000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>543000</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,64 +4622,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
+      <c r="D83" s="3">
+        <v>294000</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
         <v>291000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>271000</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
         <v>254000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>248000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>207000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>228000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>228000</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>219000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>249000</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4974,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
+      <c r="D89" s="3">
+        <v>363000</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
         <v>862000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>73000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
         <v>717000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>451000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>634000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>297000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>739000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>351000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>580000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5058,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
+      <c r="D91" s="3">
+        <v>-175000</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
         <v>-255000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-188000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
         <v>-255000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-153000</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-169000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-178000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-198000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-178000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-218000</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-174000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5233,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
+      <c r="D94" s="3">
+        <v>-431000</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
         <v>-280000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-326000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
         <v>-286000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-965000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-179000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-199000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-326000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-217000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>5000</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-388000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,64 +5317,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-203000</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-126000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-202000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-126000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-192000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-123000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-198000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-107000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-162000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-109000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,172 +5551,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
+      <c r="D100" s="3">
+        <v>-302000</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
         <v>839000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>325000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
         <v>-296000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>303000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-202000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-169000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-304000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-130000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-598000</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
+      <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
         <v>4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
+      <c r="D102" s="3">
+        <v>-372000</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
         <v>1425000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>69000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
         <v>135000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-211000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>252000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-74000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>111000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>6000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-15000</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>-49000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="92">
   <si>
     <t>SNN</t>
   </si>
@@ -1419,10 +1419,10 @@
         <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>571000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>237000</v>
+        <v>842000</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
@@ -4635,10 +4635,10 @@
         <v>5</v>
       </c>
       <c r="F83" s="3">
-        <v>291000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>271000</v>
+        <v>562000</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
@@ -4989,10 +4989,10 @@
         <v>5</v>
       </c>
       <c r="F89" s="3">
-        <v>862000</v>
-      </c>
-      <c r="G89" s="3">
-        <v>73000</v>
+        <v>935000</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
@@ -5071,10 +5071,10 @@
         <v>5</v>
       </c>
       <c r="F91" s="3">
-        <v>-255000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-188000</v>
+        <v>-443000</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
@@ -5248,10 +5248,10 @@
         <v>5</v>
       </c>
       <c r="F94" s="3">
-        <v>-280000</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-326000</v>
+        <v>-606000</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
@@ -5330,10 +5330,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-126000</v>
+        <v>-328000</v>
       </c>
       <c r="G96" s="3">
-        <v>-202000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5566,10 +5566,10 @@
         <v>5</v>
       </c>
       <c r="F100" s="3">
-        <v>839000</v>
-      </c>
-      <c r="G100" s="3">
-        <v>325000</v>
+        <v>1164000</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
@@ -5625,10 +5625,10 @@
         <v>5</v>
       </c>
       <c r="F101" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-3000</v>
+        <v>1000</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
@@ -5684,10 +5684,10 @@
         <v>5</v>
       </c>
       <c r="F102" s="3">
-        <v>1425000</v>
-      </c>
-      <c r="G102" s="3">
-        <v>69000</v>
+        <v>1494000</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>

--- a/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="92">
   <si>
     <t>SNN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,283 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2613000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2599000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1264000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2525000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2035000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1134000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2653000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2485000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1202000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2464000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1169000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2440000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1196000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2429000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1152000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2336000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2341000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1119000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2328000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>737000</v>
+      </c>
+      <c r="E9" s="3">
         <v>806000</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
         <v>750000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>646000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
         <v>690000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>648000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>645000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>653000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>645000</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>603000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>640000</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1876000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1793000</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
         <v>1775000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1389000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
         <v>1963000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1837000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>1819000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>1787000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1784000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>1733000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1701000</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>1696000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -951,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E12" s="3">
         <v>171000</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
         <v>159000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>148000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
         <v>153000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>139000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3">
         <v>130000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3">
         <v>116000</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3">
         <v>116000</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3">
         <v>107000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>117000</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U12" s="3">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,126 +1085,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E14" s="3">
         <v>133000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>74000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>94000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>123000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>52000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>56000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>78000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>14000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-326000</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E15" s="3">
         <v>87000</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
         <v>151000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>83000</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
         <v>100000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>61000</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>56000</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>57000</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>127000</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>65000</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2184000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2360000</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
         <v>2225000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2040000</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
         <v>2257000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2066000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>1973000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>2068000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1909000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>1922000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1571000</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>429000</v>
+      </c>
+      <c r="E18" s="3">
         <v>239000</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
         <v>300000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
         <v>396000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>419000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>491000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>372000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>520000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>414000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>770000</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,126 +1380,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-16000</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
         <v>-20000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-29000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
         <v>-9000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-51000</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-31000</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-3000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-35000</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>636000</v>
+      </c>
+      <c r="E21" s="3">
         <v>517000</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
         <v>842000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
         <v>641000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>661000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>647000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>569000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>724000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>630000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>984000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>541000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1486,15 +1525,15 @@
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
         <v>27000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>30000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1513,138 +1552,147 @@
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>28000</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>363000</v>
+      </c>
+      <c r="E23" s="3">
         <v>223000</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
         <v>280000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-34000</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
         <v>360000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>383000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>440000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>341000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>496000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>383000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>735000</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E24" s="3">
         <v>18000</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
         <v>-68000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-134000</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
         <v>69000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>74000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>51000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>67000</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>21000</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>59000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>192000</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E26" s="3">
         <v>205000</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
         <v>348000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
         <v>291000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>309000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>389000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>274000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>475000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>324000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>543000</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E27" s="3">
         <v>205000</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
         <v>348000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
         <v>291000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>309000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>389000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>274000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>475000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>324000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>543000</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,40 +1936,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -1920,12 +1980,12 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1938,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E32" s="3">
         <v>16000</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
         <v>20000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>29000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
         <v>9000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>51000</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>31000</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>24000</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>3000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>35000</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E33" s="3">
         <v>205000</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
         <v>348000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
         <v>291000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>309000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>389000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>274000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>443000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>324000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>543000</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E35" s="3">
         <v>205000</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
         <v>348000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
         <v>291000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>309000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>389000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>274000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>443000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>324000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>543000</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,16 +2487,17 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1290000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1387000</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F41" s="3">
         <v>1762000</v>
@@ -2419,50 +2505,53 @@
       <c r="G41" s="3">
         <v>347000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
+      <c r="H41" s="3">
+        <v>277000</v>
       </c>
       <c r="I41" s="3">
-        <v>277000</v>
+        <v>137000</v>
       </c>
       <c r="J41" s="3">
+        <v>365000</v>
+      </c>
+      <c r="K41" s="3">
         <v>137000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>365000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>99000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>169000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>69000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>100000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2520,16 +2609,19 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1290000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1305000</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F43" s="3">
         <v>1211000</v>
@@ -2537,58 +2629,61 @@
       <c r="G43" s="3">
         <v>1231000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
+      <c r="H43" s="3">
+        <v>1328000</v>
       </c>
       <c r="I43" s="3">
-        <v>1328000</v>
+        <v>1280000</v>
       </c>
       <c r="J43" s="3">
+        <v>1317000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1280000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>1317000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>1205000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1258000</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>1212000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1185000</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>1166000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1844000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1750000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F44" s="3">
         <v>1691000</v>
@@ -2596,50 +2691,53 @@
       <c r="G44" s="3">
         <v>1721000</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
+      <c r="H44" s="3">
+        <v>1614000</v>
       </c>
       <c r="I44" s="3">
-        <v>1614000</v>
+        <v>1532000</v>
       </c>
       <c r="J44" s="3">
+        <v>1395000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1532000</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>1395000</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>1352000</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1304000</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>1298000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1244000</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>1291000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2688,25 +2786,28 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4424000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4442000</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F46" s="3">
         <v>4664000</v>
@@ -2714,58 +2815,61 @@
       <c r="G46" s="3">
         <v>3299000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
+      <c r="H46" s="3">
+        <v>3219000</v>
       </c>
       <c r="I46" s="3">
-        <v>3219000</v>
+        <v>2949000</v>
       </c>
       <c r="J46" s="3">
+        <v>3077000</v>
+      </c>
+      <c r="K46" s="3">
         <v>2949000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>3077000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>2656000</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>2731000</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>2579000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2529000</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E47" s="3">
         <v>146000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F47" s="3">
         <v>117000</v>
@@ -2773,58 +2877,61 @@
       <c r="G47" s="3">
         <v>106000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
+      <c r="H47" s="3">
+        <v>110000</v>
       </c>
       <c r="I47" s="3">
-        <v>110000</v>
+        <v>109000</v>
       </c>
       <c r="J47" s="3">
+        <v>139000</v>
+      </c>
+      <c r="K47" s="3">
         <v>109000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>139000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>140000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>139000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>135000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>137000</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1513000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1453000</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F48" s="3">
         <v>1449000</v>
@@ -2832,58 +2939,61 @@
       <c r="G48" s="3">
         <v>1353000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
+      <c r="H48" s="3">
+        <v>1323000</v>
       </c>
       <c r="I48" s="3">
-        <v>1323000</v>
+        <v>1226000</v>
       </c>
       <c r="J48" s="3">
+        <v>1062000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1226000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>1062000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>1056000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1049000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>1032000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>982000</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>946000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4387000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4485000</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F49" s="3">
         <v>4414000</v>
@@ -2891,50 +3001,53 @@
       <c r="G49" s="3">
         <v>4398000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
+      <c r="H49" s="3">
+        <v>4356000</v>
       </c>
       <c r="I49" s="3">
-        <v>4356000</v>
+        <v>4391000</v>
       </c>
       <c r="J49" s="3">
+        <v>3547000</v>
+      </c>
+      <c r="K49" s="3">
         <v>4391000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>3547000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>3638000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3742000</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>3587000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3599000</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>3762000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,16 +3167,19 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>398000</v>
+      </c>
+      <c r="E52" s="3">
         <v>407000</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F52" s="3">
         <v>368000</v>
@@ -3068,50 +3187,53 @@
       <c r="G52" s="3">
         <v>383000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
+      <c r="H52" s="3">
+        <v>291000</v>
       </c>
       <c r="I52" s="3">
-        <v>291000</v>
+        <v>271000</v>
       </c>
       <c r="J52" s="3">
+        <v>234000</v>
+      </c>
+      <c r="K52" s="3">
         <v>271000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>234000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>223000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>205000</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>106000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>97000</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,16 +3291,19 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10920000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10933000</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F54" s="3">
         <v>11012000</v>
@@ -3186,50 +3311,53 @@
       <c r="G54" s="3">
         <v>9539000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
+      <c r="H54" s="3">
+        <v>9299000</v>
       </c>
       <c r="I54" s="3">
-        <v>9299000</v>
+        <v>8946000</v>
       </c>
       <c r="J54" s="3">
+        <v>8059000</v>
+      </c>
+      <c r="K54" s="3">
         <v>8946000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>8059000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>7713000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>7866000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>7439000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7344000</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>7502000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,16 +3403,17 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1096000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1046000</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F57" s="3">
         <v>1022000</v>
@@ -3291,58 +3421,61 @@
       <c r="G57" s="3">
         <v>875000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
+      <c r="H57" s="3">
+        <v>1046000</v>
       </c>
       <c r="I57" s="3">
-        <v>1046000</v>
+        <v>906000</v>
       </c>
       <c r="J57" s="3">
+        <v>957000</v>
+      </c>
+      <c r="K57" s="3">
         <v>906000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>957000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>831000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>957000</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>792000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>884000</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>842000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>491000</v>
+      </c>
+      <c r="E58" s="3">
         <v>650000</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F58" s="3">
         <v>337000</v>
@@ -3350,58 +3483,61 @@
       <c r="G58" s="3">
         <v>163000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
+      <c r="H58" s="3">
+        <v>72000</v>
       </c>
       <c r="I58" s="3">
-        <v>72000</v>
+        <v>199000</v>
       </c>
       <c r="J58" s="3">
+        <v>164000</v>
+      </c>
+      <c r="K58" s="3">
         <v>199000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>164000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>86000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>27000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>64000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>86000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>544000</v>
+      </c>
+      <c r="E59" s="3">
         <v>424000</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F59" s="3">
         <v>329000</v>
@@ -3409,58 +3545,61 @@
       <c r="G59" s="3">
         <v>478000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
+      <c r="H59" s="3">
+        <v>446000</v>
       </c>
       <c r="I59" s="3">
-        <v>446000</v>
+        <v>369000</v>
       </c>
       <c r="J59" s="3">
+        <v>344000</v>
+      </c>
+      <c r="K59" s="3">
         <v>369000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>344000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>330000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>362000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>329000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>378000</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>432000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2131000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2120000</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F60" s="3">
         <v>1688000</v>
@@ -3468,58 +3607,61 @@
       <c r="G60" s="3">
         <v>1516000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
+      <c r="H60" s="3">
+        <v>1564000</v>
       </c>
       <c r="I60" s="3">
-        <v>1564000</v>
+        <v>1474000</v>
       </c>
       <c r="J60" s="3">
+        <v>1465000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1474000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>1465000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>1247000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1346000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>1185000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1348000</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>1345000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2848000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2916000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>3353000</v>
@@ -3528,57 +3670,60 @@
         <v>2476000</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>1975000</v>
       </c>
       <c r="I61" s="3">
-        <v>1975000</v>
+        <v>1980000</v>
       </c>
       <c r="J61" s="3">
+        <v>1301000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1980000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1301000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1420000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1423000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1604000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1564000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>1708000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E62" s="3">
         <v>566000</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F62" s="3">
         <v>692000</v>
@@ -3586,50 +3731,53 @@
       <c r="G62" s="3">
         <v>587000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
+      <c r="H62" s="3">
+        <v>619000</v>
       </c>
       <c r="I62" s="3">
-        <v>619000</v>
+        <v>540000</v>
       </c>
       <c r="J62" s="3">
+        <v>419000</v>
+      </c>
+      <c r="K62" s="3">
         <v>540000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>419000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>403000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>453000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>449000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>474000</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,16 +3959,19 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5352000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5602000</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F66" s="3">
         <v>5733000</v>
@@ -3822,50 +3979,53 @@
       <c r="G66" s="3">
         <v>4579000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
+      <c r="H66" s="3">
+        <v>4158000</v>
       </c>
       <c r="I66" s="3">
-        <v>4158000</v>
+        <v>3994000</v>
       </c>
       <c r="J66" s="3">
+        <v>3185000</v>
+      </c>
+      <c r="K66" s="3">
         <v>3994000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>3185000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>3070000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3222000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>3238000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3386000</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>3558000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,16 +4293,19 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4897000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4680000</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F72" s="3">
         <v>4647000</v>
@@ -4140,50 +4313,53 @@
       <c r="G72" s="3">
         <v>4349000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
+      <c r="H72" s="3">
+        <v>4543000</v>
       </c>
       <c r="I72" s="3">
-        <v>4543000</v>
+        <v>4370000</v>
       </c>
       <c r="J72" s="3">
+        <v>4303000</v>
+      </c>
+      <c r="K72" s="3">
         <v>4370000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>4303000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>4092000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>4118000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>3680000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3610000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>3450000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,16 +4541,19 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5568000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5331000</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F76" s="3">
         <v>5279000</v>
@@ -4376,50 +4561,53 @@
       <c r="G76" s="3">
         <v>4960000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
+      <c r="H76" s="3">
+        <v>5141000</v>
       </c>
       <c r="I76" s="3">
-        <v>5141000</v>
+        <v>4952000</v>
       </c>
       <c r="J76" s="3">
+        <v>4874000</v>
+      </c>
+      <c r="K76" s="3">
         <v>4952000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>4874000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>4643000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>4644000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>4201000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3958000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>3944000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E81" s="3">
         <v>205000</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
         <v>348000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
         <v>291000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>309000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>389000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>274000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>443000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>324000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>543000</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>273000</v>
+      </c>
+      <c r="E83" s="3">
         <v>294000</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
         <v>562000</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
         <v>254000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>248000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>207000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>228000</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>228000</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>219000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>249000</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>514000</v>
+      </c>
+      <c r="E89" s="3">
         <v>363000</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3">
         <v>935000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
         <v>717000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>451000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>634000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>297000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>739000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>351000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>580000</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-233000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-175000</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
         <v>-443000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
         <v>-255000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-153000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-169000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-178000</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-198000</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-178000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-218000</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-174000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-260000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-431000</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
         <v>-606000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
         <v>-286000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-965000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-179000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-199000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-326000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-217000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5000</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-388000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,67 +5550,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-126000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-203000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-328000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-126000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-192000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-123000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-198000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-107000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-162000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-109000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-343000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-302000</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
         <v>1164000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
         <v>-296000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>303000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-202000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-169000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-304000</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-130000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-598000</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-3000</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-372000</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
         <v>1494000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
         <v>135000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-211000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>252000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-74000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>111000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>6000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-15000</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>-49000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="92">
   <si>
     <t>SNN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2600000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2613000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2599000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1264000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2525000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2035000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1134000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2653000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2485000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1202000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2464000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1169000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2440000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1196000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2429000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1152000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2336000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2341000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1119000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2328000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>773000</v>
+      </c>
+      <c r="E9" s="3">
         <v>737000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>806000</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
         <v>750000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>646000</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>690000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>648000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>645000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>653000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>645000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>603000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>640000</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1827000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1876000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1793000</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
         <v>1775000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1389000</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>1963000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1837000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>1819000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>1787000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>1784000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>1733000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1701000</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>1696000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,70 +977,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E12" s="3">
         <v>185000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>171000</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
         <v>159000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>148000</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
         <v>153000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>139000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3">
         <v>130000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3">
         <v>116000</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3">
         <v>116000</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="3">
         <v>107000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>117000</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V12" s="3">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,132 +1105,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-37000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>133000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
         <v>74000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>94000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>123000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>52000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>56000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>78000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>-30000</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>14000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-326000</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E15" s="3">
         <v>150000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>87000</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
         <v>151000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>83000</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>100000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>61000</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>56000</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>57000</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>127000</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>65000</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2358000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2184000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2360000</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
         <v>2225000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2040000</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>2257000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2066000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>1973000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>2068000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>1909000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>1922000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1571000</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E18" s="3">
         <v>429000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>239000</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
         <v>300000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>396000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>419000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>491000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>372000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>520000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>414000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>770000</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,132 +1414,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-66000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-16000</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
         <v>-20000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-29000</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-9000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-51000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-31000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-24000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>-3000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-35000</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E21" s="3">
         <v>636000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>517000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
         <v>842000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>641000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>661000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>647000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>569000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>724000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>630000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>984000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>541000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1528,15 +1568,15 @@
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>27000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>30000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1555,144 +1595,153 @@
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>28000</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E23" s="3">
         <v>363000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>223000</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
         <v>280000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-34000</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>360000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>383000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>440000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>341000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>496000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>383000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>735000</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E24" s="3">
         <v>44000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18000</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
         <v>-68000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-134000</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>69000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>74000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>51000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>67000</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>21000</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>59000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>192000</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E26" s="3">
         <v>319000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>205000</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
         <v>348000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100000</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>291000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>309000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>389000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>274000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>475000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>324000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>543000</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E27" s="3">
         <v>319000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>205000</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
         <v>348000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100000</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>291000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>309000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>389000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>274000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>475000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>324000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>543000</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1965,17 +2026,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -1983,12 +2044,12 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-32000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E32" s="3">
         <v>66000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>16000</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
         <v>20000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>29000</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>9000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>51000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>31000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>24000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>3000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>35000</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E33" s="3">
         <v>319000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>205000</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
         <v>348000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100000</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>291000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>309000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>389000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>274000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>443000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>324000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>543000</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E35" s="3">
         <v>319000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>205000</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
         <v>348000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100000</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>291000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>309000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>389000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>274000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>443000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>324000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>543000</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>516000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1290000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1387000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1762000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>347000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>277000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>137000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>365000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>137000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>365000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>99000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>169000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>69000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>100000</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,132 +2702,141 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1253000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1290000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1305000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1211000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1231000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1328000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1280000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1317000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1280000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>1317000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>1205000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>1258000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>1212000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1185000</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>1166000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1990000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1844000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1750000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1691000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1721000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1614000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1532000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1395000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1532000</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>1395000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>1352000</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>1304000</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>1298000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1244000</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>1291000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2789,265 +2888,280 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3759000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4424000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4442000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4664000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3299000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3219000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2949000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3077000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2949000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>3077000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>2656000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>2731000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>2579000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2529000</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>195000</v>
+      </c>
+      <c r="E47" s="3">
         <v>198000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>146000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>117000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>106000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>110000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>109000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>139000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>109000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>139000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>140000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>139000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>135000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>137000</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1460000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1513000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1453000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1449000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1353000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1323000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1226000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1062000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1226000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>1062000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>1056000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>1049000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>1032000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>982000</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>946000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4338000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4387000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4485000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4414000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4398000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4356000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4391000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3547000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4391000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>3547000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>3638000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>3742000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>3587000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3599000</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>3762000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>353000</v>
+      </c>
+      <c r="E52" s="3">
         <v>398000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>407000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>368000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>383000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>291000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>271000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>234000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>271000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>234000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>223000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>205000</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>106000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>97000</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10105000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10920000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10933000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11012000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9539000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9299000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8946000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8059000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8946000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>8059000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>7713000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>7866000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>7439000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7344000</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>7502000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,380 +3534,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1013000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1096000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1046000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1022000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>875000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1046000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>906000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>957000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>906000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>957000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>831000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>957000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>792000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>884000</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>842000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>612000</v>
+      </c>
+      <c r="E58" s="3">
         <v>491000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>650000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>337000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>163000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>72000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>199000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>164000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>199000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>164000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>86000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>27000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>64000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>86000</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>492000</v>
+      </c>
+      <c r="E59" s="3">
         <v>544000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>424000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>329000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>478000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>446000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>369000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>344000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>369000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>344000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>330000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>362000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>329000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>378000</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>432000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2117000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2131000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2120000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1688000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1516000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1564000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1474000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1465000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1474000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>1465000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>1247000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>1346000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>1185000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1348000</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>1345000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2281000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2848000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2916000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3353000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2476000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1975000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1980000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1301000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1980000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1301000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1420000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>1423000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>1604000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1564000</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>1708000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E62" s="3">
         <v>373000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>566000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>692000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>587000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>619000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>540000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>419000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>540000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>419000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>403000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>453000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>449000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>474000</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4710000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5352000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5602000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5733000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4579000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4158000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3994000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3185000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3994000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>3185000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>3070000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>3222000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>3238000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3386000</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>3558000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4711000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4897000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4680000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4647000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4349000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4543000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4370000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4303000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4370000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>4303000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>4092000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>4118000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>3680000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3610000</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>3450000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5395000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5568000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5331000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5279000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4960000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5141000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4952000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4874000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4952000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>4874000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>4643000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>4644000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>4201000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3958000</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>3944000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E81" s="3">
         <v>319000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>205000</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
         <v>348000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100000</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>291000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>309000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>389000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>274000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>443000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>324000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>543000</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>309000</v>
+      </c>
+      <c r="E83" s="3">
         <v>273000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>294000</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
         <v>562000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>254000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>248000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>207000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>228000</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>228000</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>219000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>249000</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E89" s="3">
         <v>514000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>363000</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
         <v>935000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>717000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>451000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>634000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>297000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>739000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>351000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>580000</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-173000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-233000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-175000</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
         <v>-443000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-255000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-153000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-169000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-178000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-198000</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-178000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-218000</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-174000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-268000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-260000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-431000</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
         <v>-606000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-286000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-965000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-179000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-199000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-326000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-217000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>5000</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-388000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,70 +5784,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-202000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-126000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-203000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-328000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-126000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-192000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-123000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-198000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-107000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-162000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-109000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6042,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-704000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-343000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-302000</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
         <v>1164000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-296000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>303000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-202000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-169000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-304000</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-130000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-598000</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>-3000</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2000</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-773000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-94000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-372000</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
         <v>1494000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>135000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-211000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>252000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>-74000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>111000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>6000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-15000</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>-49000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="92">
   <si>
     <t>SNN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2615000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2613000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2599000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1264000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2525000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2035000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1134000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2653000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2485000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1202000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2464000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1169000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2440000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1196000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2429000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1152000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2336000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2341000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1119000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2328000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>767000</v>
+      </c>
+      <c r="E9" s="3">
         <v>773000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>737000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>806000</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
         <v>750000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>646000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>690000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>648000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>645000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>653000</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>645000</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>603000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>640000</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1848000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1827000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1876000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1793000</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
         <v>1775000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1389000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>1963000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1837000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>1819000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1787000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>1784000</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>1733000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1701000</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>1696000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,73 +991,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E12" s="3">
         <v>174000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>185000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>171000</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3">
         <v>159000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>148000</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3">
         <v>153000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>139000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3">
         <v>130000</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3">
         <v>116000</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3">
         <v>116000</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T12" s="3">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3">
         <v>107000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>117000</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W12" s="3">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,138 +1125,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E14" s="3">
         <v>93000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-37000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>133000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>74000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>94000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>123000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>52000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>56000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>78000</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>-30000</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>14000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-326000</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E15" s="3">
         <v>105000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>150000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>87000</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
         <v>151000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>83000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>100000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>61000</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>56000</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>57000</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>127000</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="3">
         <v>65000</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2407000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2358000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2184000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2360000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
         <v>2225000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2040000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>2257000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2066000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>1973000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2068000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>1909000</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>1922000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1571000</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E18" s="3">
         <v>242000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>429000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>239000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
         <v>300000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>396000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>419000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>491000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>372000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>520000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>414000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>770000</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,138 +1448,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-177000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-38000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-66000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-16000</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
         <v>-20000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-29000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6000</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-51000</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-24000</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-3000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-35000</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>339000</v>
+      </c>
+      <c r="E21" s="3">
         <v>513000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>636000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>517000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
         <v>842000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>641000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>661000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>647000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>569000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>724000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>630000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>984000</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>541000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1571,15 +1611,15 @@
       <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>27000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>30000</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1598,150 +1638,159 @@
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>28000</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E23" s="3">
         <v>204000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>363000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>223000</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
         <v>280000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-34000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>360000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>383000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>440000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>341000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>496000</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>383000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>735000</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E24" s="3">
         <v>27000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>44000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18000</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
         <v>-68000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-134000</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>69000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>74000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>51000</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>67000</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>21000</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>59000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>192000</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E26" s="3">
         <v>177000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>319000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>205000</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
         <v>348000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>291000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>309000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>389000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>274000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>475000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>324000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>543000</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E27" s="3">
         <v>177000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>319000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>205000</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
         <v>348000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>291000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>309000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>389000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>274000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>475000</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>324000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>543000</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2029,17 +2090,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2047,12 +2108,12 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-32000</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2262,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E32" s="3">
         <v>38000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>66000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>16000</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
         <v>20000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>29000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6000</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>51000</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>31000</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>24000</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>3000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>35000</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E33" s="3">
         <v>177000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>319000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>205000</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
         <v>348000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>291000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>309000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>389000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>274000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>443000</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>324000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>543000</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E35" s="3">
         <v>177000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>319000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>205000</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
         <v>348000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>291000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>309000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>389000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>274000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>443000</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>324000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>543000</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2661,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>350000</v>
+      </c>
+      <c r="E41" s="3">
         <v>516000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1290000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1387000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1762000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>347000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>277000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>137000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>365000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>137000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>365000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>99000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>169000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>69000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>100000</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,138 +2795,147 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1301000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1253000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1290000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1305000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1211000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1231000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1328000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1280000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1317000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1280000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>1317000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1205000</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>1258000</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>1212000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1185000</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>1166000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2205000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1990000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1844000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1750000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1691000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1721000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1614000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1532000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1395000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1532000</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>1395000</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1352000</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>1304000</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>1298000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1244000</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>1291000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2891,277 +2990,292 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3856000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3759000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4424000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4442000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4664000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3299000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3219000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2949000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3077000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2949000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>3077000</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>2656000</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>2731000</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>2579000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2529000</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E47" s="3">
         <v>195000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>198000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>146000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>117000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>106000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>110000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>109000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>139000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>109000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>139000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>140000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>139000</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>135000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>137000</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1455000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1460000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1513000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1453000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1449000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1353000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1323000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1226000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1062000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1226000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>1062000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1056000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>1049000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>1032000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>982000</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>946000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4267000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4338000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4387000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4485000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4414000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4398000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4356000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4391000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3547000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4391000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>3547000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3638000</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>3742000</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>3587000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3599000</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>3762000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3407,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>330000</v>
+      </c>
+      <c r="E52" s="3">
         <v>353000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>398000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>407000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>368000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>383000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>291000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>271000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>234000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>271000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>234000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>223000</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>205000</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>106000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>97000</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9966000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10105000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10920000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10933000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11012000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9539000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9299000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8946000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8059000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8946000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>8059000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>7713000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>7866000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>7439000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7344000</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>7502000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,398 +3665,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1098000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1013000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1096000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1046000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1022000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>875000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1046000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>906000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>957000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>906000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>957000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>831000</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>957000</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>792000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>884000</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>842000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E58" s="3">
         <v>612000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>491000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>650000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>337000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>163000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>72000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>199000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>164000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>199000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>164000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>86000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>27000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>64000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>86000</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>457000</v>
+      </c>
+      <c r="E59" s="3">
         <v>492000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>544000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>424000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>329000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>478000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>446000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>369000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>344000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>369000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>344000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>330000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>362000</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>329000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>378000</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>432000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1715000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2117000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2131000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2120000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1688000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1516000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1564000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1474000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1465000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1474000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>1465000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1247000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>1346000</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>1185000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1348000</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>1345000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2712000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2281000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2848000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2916000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3353000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2476000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1975000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1980000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1301000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1980000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1301000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1420000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1423000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>1604000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1564000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>1708000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E62" s="3">
         <v>312000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>373000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>566000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>692000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>587000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>619000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>540000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>419000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>540000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>419000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>403000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>453000</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>449000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>474000</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4707000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4710000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5352000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5602000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5733000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4579000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4158000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3994000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3185000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3994000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>3185000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3070000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>3222000</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>3238000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3386000</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>3558000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4587000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4711000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4897000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4680000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4647000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4349000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4543000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4370000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4303000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4370000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>4303000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>4092000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>4118000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>3680000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3610000</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>3450000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5259000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5395000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5568000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5331000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5279000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4960000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5141000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4952000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4874000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4952000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>4874000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>4643000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>4644000</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>4201000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3958000</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>3944000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E81" s="3">
         <v>177000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>319000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>205000</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
         <v>348000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>291000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>309000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>389000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>274000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>443000</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>324000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>543000</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X81" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,73 +5218,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E83" s="3">
         <v>309000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>273000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>294000</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
         <v>562000</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>254000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>248000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>207000</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>228000</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>228000</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>219000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>249000</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E89" s="3">
         <v>207000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>514000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>363000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
         <v>935000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>717000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>451000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>634000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>297000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>739000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>351000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>580000</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5720,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-185000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-173000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-233000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-175000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
         <v>-443000</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-255000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-153000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-169000</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-178000</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-198000</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-178000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-218000</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-174000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-204000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-268000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-260000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-431000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
         <v>-606000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-286000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-965000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-179000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-199000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-326000</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-217000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>5000</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-388000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,73 +6018,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-125000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-202000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-126000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-203000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-328000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-126000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-192000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-123000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-198000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-107000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-162000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-109000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,199 +6288,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-222000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-704000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-343000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-302000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
         <v>1164000</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-296000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>303000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-202000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-169000</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-304000</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-130000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-598000</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2000</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-168000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-773000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-94000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-372000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
         <v>1494000</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>135000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-211000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>252000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>111000</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>6000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-15000</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>-49000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="92">
   <si>
     <t>SNN</t>
   </si>
@@ -5738,14 +5738,14 @@
       <c r="G91" s="3">
         <v>-175000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+      <c r="H91" s="3">
+        <v>-255000</v>
       </c>
       <c r="I91" s="3">
-        <v>-443000</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
+        <v>-188000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-255000</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>

--- a/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="92">
   <si>
     <t>SNN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,322 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2734000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2615000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2600000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2613000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2599000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1264000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2525000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2035000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1134000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2653000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2485000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1202000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2464000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1169000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2440000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1196000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2429000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1152000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2336000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2341000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1119000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2328000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>836000</v>
+      </c>
+      <c r="E9" s="3">
         <v>767000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>773000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>737000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>806000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
         <v>750000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>646000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>690000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>648000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>645000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>653000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>645000</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>603000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>640000</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1898000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1848000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1827000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1876000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1793000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
         <v>1775000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1389000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>1963000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1837000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>1819000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>1787000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>1784000</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>1733000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1701000</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
         <v>1696000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,76 +1005,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E12" s="3">
         <v>171000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>174000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>185000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>171000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
         <v>159000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>148000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3">
         <v>153000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>139000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3">
         <v>130000</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3">
         <v>116000</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="3">
         <v>116000</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U12" s="3">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3">
         <v>107000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>117000</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X12" s="3">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,144 +1145,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E14" s="3">
         <v>91000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>93000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-37000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>133000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>74000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>94000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>123000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>52000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>56000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>78000</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>-30000</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>14000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-326000</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E15" s="3">
         <v>64000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>105000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>150000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>87000</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
         <v>151000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>83000</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>100000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>61000</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>56000</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>57000</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>127000</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="3">
         <v>65000</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1313,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2459000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2407000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2358000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2184000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2360000</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
         <v>2225000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2040000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>2257000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2066000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>1973000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>2068000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>1909000</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>1922000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1571000</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>275000</v>
+      </c>
+      <c r="E18" s="3">
         <v>208000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>242000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>429000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>239000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
         <v>300000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>396000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>419000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>491000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>372000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>520000</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>414000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>770000</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,144 +1482,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-177000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-38000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-66000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-16000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
         <v>-20000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-29000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-51000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-31000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>-24000</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>-3000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-35000</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>508000</v>
+      </c>
+      <c r="E21" s="3">
         <v>339000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>513000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>636000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>517000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
         <v>842000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>641000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>661000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>647000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>569000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>724000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>630000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>984000</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>541000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1614,15 +1654,15 @@
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>27000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>30000</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1641,156 +1681,165 @@
       <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>28000</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E23" s="3">
         <v>31000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>204000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>363000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>223000</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
         <v>280000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-34000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>360000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>383000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>440000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>341000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>496000</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>383000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>735000</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-15000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>27000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>44000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18000</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
         <v>-68000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-134000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>69000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>74000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>51000</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>67000</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>21000</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>59000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>192000</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1906,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E26" s="3">
         <v>46000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>177000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>319000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>205000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
         <v>348000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>291000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>309000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>389000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>274000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>475000</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>324000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>543000</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E27" s="3">
         <v>46000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>177000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>319000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>205000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
         <v>348000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>291000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>309000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>389000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>274000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>475000</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>324000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>543000</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2119,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2093,17 +2154,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2111,12 +2172,12 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-32000</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2129,8 +2190,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2261,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,144 +2332,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E32" s="3">
         <v>177000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>38000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>66000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>16000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
         <v>20000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>29000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>51000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>31000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>24000</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>3000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>35000</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E33" s="3">
         <v>46000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>177000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>319000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>205000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
         <v>348000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>291000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>309000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>389000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>274000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>443000</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>324000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>543000</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2545,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E35" s="3">
         <v>46000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>177000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>319000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>205000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
         <v>348000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>291000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>309000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>389000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>274000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>443000</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>324000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>543000</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2721,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,76 +2748,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E41" s="3">
         <v>350000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>516000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1290000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1387000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1762000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>347000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>277000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>137000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>365000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>137000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>365000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>99000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>169000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>69000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>100000</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,144 +2888,153 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1277000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1301000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1253000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1290000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1305000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1211000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1231000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1328000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1280000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1317000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1280000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>1317000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>1205000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>1258000</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>1212000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1185000</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>1166000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2411000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2205000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1990000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1844000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1750000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1691000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1721000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1614000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1532000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1395000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1532000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>1395000</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>1352000</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>1304000</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>1298000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1244000</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
         <v>1291000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2993,289 +3092,304 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3878000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3856000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3759000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4424000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4442000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4664000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3299000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3219000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2949000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3077000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2949000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>3077000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>2656000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>2731000</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>2579000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2529000</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
         <v>2552000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E47" s="3">
         <v>58000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>195000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>198000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>146000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>117000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>106000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>110000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>109000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>139000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>109000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>139000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>140000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>139000</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>135000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>137000</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1421000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1455000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1460000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1513000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1453000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1449000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1353000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1323000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1226000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1062000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1226000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>1062000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>1056000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>1049000</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>1032000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>982000</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>946000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4229000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4267000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4338000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4387000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4485000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4414000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4398000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4356000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4391000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3547000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4391000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>3547000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>3638000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>3742000</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>3587000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3599000</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>3762000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3456,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,76 +3527,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E52" s="3">
         <v>330000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>353000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>398000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>407000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>368000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>383000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>291000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>271000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>234000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>271000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>234000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>223000</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>205000</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>106000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>97000</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3669,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9844000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9966000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10105000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10920000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10933000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11012000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9539000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9299000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8946000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8059000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8946000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>8059000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>7713000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>7866000</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>7439000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7344000</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>7502000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3769,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,416 +3796,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>955000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1098000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1013000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1096000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1046000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1022000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>875000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1046000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>906000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>957000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>906000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>957000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>831000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>957000</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>792000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>884000</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>842000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>407000</v>
+      </c>
+      <c r="E58" s="3">
         <v>160000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>612000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>491000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>650000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>337000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>163000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>72000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>199000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>164000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>199000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>164000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>86000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>27000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>64000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>86000</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>405000</v>
+      </c>
+      <c r="E59" s="3">
         <v>457000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>492000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>544000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>424000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>329000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>478000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>446000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>369000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>344000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>369000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>344000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>330000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>362000</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>329000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>378000</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>432000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1767000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1715000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2117000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2131000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2120000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1688000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1516000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1564000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1474000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1465000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1474000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>1465000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>1247000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>1346000</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>1185000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1348000</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1345000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2633000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2712000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2281000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2848000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2916000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3353000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2476000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1975000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1980000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1301000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1980000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1301000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>1420000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>1423000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>1604000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1564000</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>1708000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E62" s="3">
         <v>280000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>312000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>373000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>566000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>692000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>587000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>619000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>540000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>419000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>540000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>419000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>403000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>453000</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>449000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>474000</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
         <v>505000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4291,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4362,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4433,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4611000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4707000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4710000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5352000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5602000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5733000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4579000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4158000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3994000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3185000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3994000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>3185000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>3070000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>3222000</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>3238000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3386000</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>3558000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4533,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4602,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4673,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4744,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4815,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4550000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4587000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4711000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4897000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4680000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4647000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4349000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4543000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4370000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4303000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4370000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>4303000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>4092000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>4118000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>3680000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3610000</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>3450000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4957,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5028,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5099,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5233000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5259000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5395000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5568000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5331000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5279000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4960000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5141000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4952000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4874000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4952000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>4874000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>4643000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>4644000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>4201000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3958000</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>3944000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5241,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E81" s="3">
         <v>46000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>177000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>319000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>205000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
         <v>348000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>291000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>309000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>389000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>274000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>443000</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>324000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>543000</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y81" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,76 +5417,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E83" s="3">
         <v>308000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>309000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>273000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>294000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
         <v>562000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>254000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>248000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>207000</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>228000</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>228000</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>219000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>249000</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5557,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5628,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5699,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5770,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5841,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E89" s="3">
         <v>261000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>207000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>514000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>363000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
         <v>935000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>717000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>451000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>634000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>297000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>739000</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>351000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>580000</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>269000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,76 +5941,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-185000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-173000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-233000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-175000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-255000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-188000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-255000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-255000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-153000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-169000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-178000</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-198000</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-178000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-218000</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-174000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6081,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6152,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-204000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-268000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-260000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-431000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
         <v>-606000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-286000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-965000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-179000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-199000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-326000</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-217000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>5000</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-388000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,76 +6252,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-201000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-125000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-202000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-126000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-203000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-328000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-126000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-192000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-123000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-198000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-107000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-162000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-109000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6392,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6463,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,208 +6534,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-222000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-704000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-343000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-302000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
         <v>1164000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-296000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>303000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-202000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-169000</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-304000</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-130000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-598000</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>-3000</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2000</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-168000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-773000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-94000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-372000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
         <v>1494000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>135000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-211000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>252000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-74000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>111000</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>6000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-15000</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-49000</v>
       </c>
     </row>
